--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7ED37E-FD86-4F2E-94E1-8E35437B4851}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C66E8C2-2877-436A-92FA-C9B49C7770D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>greedy</t>
   </si>
   <si>
-    <t>cedar</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
@@ -84,7 +81,10 @@
     <t>alpha</t>
   </si>
   <si>
-    <t>240 runs</t>
+    <t>beluga-wilomit</t>
+  </si>
+  <si>
+    <t>40 runs</t>
   </si>
 </sst>
 </file>
@@ -155,10 +155,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -481,7 +481,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -513,97 +513,97 @@
       <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -620,58 +620,58 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -688,68 +688,68 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C66E8C2-2877-436A-92FA-C9B49C7770D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F059C8-1737-4F9A-B978-8055846404D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
   <si>
     <t>type</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>40 runs</t>
+  </si>
+  <si>
+    <t>kappa</t>
   </si>
 </sst>
 </file>
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8ED867-3C0A-40D6-9422-6B5E3E872E82}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -489,7 +492,7 @@
     <col min="1" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -511,8 +514,9 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
@@ -520,93 +524,97 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -616,12 +624,12 @@
       <c r="C4" s="1">
         <v>0.05</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
@@ -638,10 +646,10 @@
         <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>5</v>
@@ -656,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>16</v>
@@ -673,8 +681,11 @@
       <c r="V4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="W4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -684,15 +695,12 @@
       <c r="C5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
@@ -706,10 +714,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>6</v>
@@ -724,10 +729,7 @@
         <v>6</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>7</v>
@@ -741,15 +743,19 @@
       <c r="V5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="W5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F059C8-1737-4F9A-B978-8055846404D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F35A9F-F723-4895-990A-2C2D325B2293}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="-24398" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
   <si>
     <t>type</t>
   </si>
@@ -88,13 +89,16 @@
   </si>
   <si>
     <t>kappa</t>
+  </si>
+  <si>
+    <t>alpha\kappa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,16 +106,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -146,11 +168,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,6 +198,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8ED867-3C0A-40D6-9422-6B5E3E872E82}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -759,4 +828,388 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740D4C70-6171-4603-B113-2C28EBD675EF}">
+  <dimension ref="B2:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="6"/>
+    <col min="2" max="2" width="11.9296875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B2" s="9">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="2:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="H4" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B5" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B6" s="13">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B7" s="13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B8" s="17">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B9" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B10" s="17">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B14" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B23" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B24" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="2:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F35A9F-F723-4895-990A-2C2D325B2293}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C3C4C3-2ABF-49C5-9ED4-D1A63EDEAE13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24398" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -194,46 +194,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,12 +556,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="16384" width="9.07421875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -585,49 +585,49 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -683,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -754,7 +754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -835,378 +835,380 @@
   <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="6"/>
-    <col min="2" max="2" width="11.9296875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="6"/>
+    <col min="1" max="1" width="9.07421875" style="4"/>
+    <col min="2" max="2" width="11.921875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.07421875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B2" s="9">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B2" s="7">
         <v>100000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="2:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="12" t="s">
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>1E-4</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>1E-3</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>2E-3</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <v>0.01</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="10">
         <v>0.02</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="10">
         <v>0.05</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="10">
         <v>0.1</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B5" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="13">
+      <c r="C5" s="14"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B6" s="11">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="13">
+      <c r="C6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B7" s="11">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="17">
+      <c r="C7" s="14"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B8" s="15">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="13">
+      <c r="C8" s="12"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B9" s="11">
         <v>1E-4</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="17">
+      <c r="C9" s="14"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B10" s="15">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="6">
+      <c r="C10" s="12"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B11" s="4">
         <v>1E-3</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="8">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B12" s="6">
         <v>2E-3</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="6">
+      <c r="C12" s="13"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B13" s="4">
         <v>0.01</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="6">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="G13" s="13"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B14" s="4">
         <v>0.02</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="G14" s="15"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="6">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B15" s="4">
         <v>0.05</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="6">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B16" s="4">
         <v>0.1</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="6">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B17" s="4">
         <v>0.2</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="G17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="6">
+      <c r="C17" s="5"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="G17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B18" s="4">
         <v>0.3</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="G18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="6">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B19" s="4">
         <v>0.4</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="6">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B20" s="4">
         <v>0.5</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="6">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B21" s="4">
         <v>0.6</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="6">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B22" s="4">
         <v>0.7</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="6">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B23" s="4">
         <v>0.8</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="6">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B24" s="4">
         <v>0.9</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="10">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="2:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C3C4C3-2ABF-49C5-9ED4-D1A63EDEAE13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD19A5F4-2A75-442B-ABDA-2539FF4F1622}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24398" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -113,7 +113,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,12 +123,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,12 +210,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,48 +574,48 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -835,7 +823,7 @@
   <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -909,13 +897,13 @@
       <c r="B5" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="14"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -926,13 +914,13 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -941,30 +929,30 @@
       <c r="B7" s="11">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -973,30 +961,30 @@
       <c r="B9" s="11">
         <v>1E-4</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -1015,14 +1003,14 @@
       <c r="B12" s="6">
         <v>2E-3</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
@@ -1031,7 +1019,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
@@ -1076,11 +1064,13 @@
         <v>0.2</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="G17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
@@ -1092,7 +1082,7 @@
       <c r="G18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="L18" s="13"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
@@ -1102,13 +1092,14 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="13"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="13"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
@@ -1119,7 +1110,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD19A5F4-2A75-442B-ABDA-2539FF4F1622}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E2094-41CF-480D-B8C1-459FDCBEE76C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24398" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +123,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,6 +234,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,12 +562,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.07421875" style="1"/>
+    <col min="1" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -573,7 +591,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
@@ -611,7 +629,7 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -671,7 +689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -742,7 +760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -823,17 +841,17 @@
   <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.07421875" style="4"/>
-    <col min="2" max="2" width="11.921875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.07421875" style="4"/>
+    <col min="1" max="1" width="9.06640625" style="4"/>
+    <col min="2" max="2" width="11.9296875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B2" s="7">
         <v>100000</v>
       </c>
@@ -841,7 +859,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -855,7 +873,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
@@ -893,7 +911,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -909,7 +927,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6" s="11">
         <v>1.9999999999999999E-6</v>
       </c>
@@ -925,7 +943,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="11">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -941,7 +959,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="13">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -957,7 +975,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="11">
         <v>1E-4</v>
       </c>
@@ -973,7 +991,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="13">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -989,17 +1007,19 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="17">
         <v>1E-3</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="6">
         <v>2E-3</v>
       </c>
@@ -1012,7 +1032,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13" s="4">
         <v>0.01</v>
       </c>
@@ -1023,7 +1043,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" s="4">
         <v>0.02</v>
       </c>
@@ -1034,7 +1054,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" s="4">
         <v>0.05</v>
       </c>
@@ -1046,20 +1066,20 @@
       <c r="J15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" s="4">
         <v>0.1</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
       <c r="G16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="4">
         <v>0.2</v>
       </c>
@@ -1072,20 +1092,21 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" s="4">
         <v>0.3</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" s="4">
         <v>0.4</v>
       </c>
@@ -1101,7 +1122,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="4">
         <v>0.5</v>
       </c>
@@ -1117,7 +1138,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" s="4">
         <v>0.6</v>
       </c>
@@ -1133,7 +1154,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" s="4">
         <v>0.7</v>
       </c>
@@ -1149,7 +1170,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B23" s="4">
         <v>0.8</v>
       </c>
@@ -1165,7 +1186,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B24" s="4">
         <v>0.9</v>
       </c>
@@ -1181,7 +1202,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="8">
         <v>1</v>
       </c>
@@ -1197,7 +1218,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E2094-41CF-480D-B8C1-459FDCBEE76C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD19CCD-0931-403E-97A6-BDA2525F3D75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -841,7 +841,7 @@
   <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1059,8 +1059,8 @@
         <v>0.05</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
       <c r="G15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1071,8 +1071,8 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="G16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -1086,6 +1086,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1099,7 +1100,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="16"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD19CCD-0931-403E-97A6-BDA2525F3D75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6CD77B-BB79-4A88-A6D2-5738D3917107}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="7898" yWindow="1508" windowWidth="18225" windowHeight="11445" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,12 +123,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,9 +231,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -840,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740D4C70-6171-4603-B113-2C28EBD675EF}">
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1008,16 +999,19 @@
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>1E-3</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="6">
@@ -1048,8 +1042,8 @@
         <v>0.02</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="G14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1059,8 +1053,8 @@
         <v>0.05</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="G15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1073,6 +1067,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -1086,7 +1081,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6CD77B-BB79-4A88-A6D2-5738D3917107}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB1BBA2-01B4-44D2-B6E1-8CDB4E580601}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7898" yWindow="1508" windowWidth="18225" windowHeight="11445" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="5468" yWindow="1125" windowWidth="18225" windowHeight="11445" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,13 +230,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,48 +595,48 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -832,7 +844,7 @@
   <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -939,9 +951,9 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
@@ -956,8 +968,8 @@
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -972,8 +984,8 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
@@ -987,9 +999,9 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="12"/>
@@ -999,11 +1011,11 @@
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>1E-3</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1031,7 +1043,7 @@
         <v>0.01</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="6"/>
       <c r="G13" s="5"/>
       <c r="I13" s="5"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB1BBA2-01B4-44D2-B6E1-8CDB4E580601}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E44FBE0-3D4F-433F-BD5A-1BE38BB3B034}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5468" yWindow="1125" windowWidth="18225" windowHeight="11445" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="5475" yWindow="1140" windowWidth="18225" windowHeight="11445" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,16 +233,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,48 +592,48 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -844,7 +841,7 @@
   <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -919,8 +916,8 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -935,7 +932,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -951,7 +948,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="11"/>
@@ -967,7 +964,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
@@ -1030,8 +1027,8 @@
         <v>2E-3</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1043,8 +1040,8 @@
         <v>0.01</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="G13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E44FBE0-3D4F-433F-BD5A-1BE38BB3B034}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB0CE61-D1FA-4BC0-B85B-89FABAC84F48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5475" yWindow="1140" windowWidth="18225" windowHeight="11445" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -233,7 +233,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -841,7 +841,7 @@
   <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -916,10 +916,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
       <c r="J5" s="11"/>
@@ -964,7 +964,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
@@ -980,7 +980,7 @@
         <v>1E-4</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB0CE61-D1FA-4BC0-B85B-89FABAC84F48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AB959B-E0D5-48F4-815D-D2A1D4635411}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="1140" windowWidth="18225" windowHeight="11445" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>type</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>alpha\kappa</t>
+  </si>
+  <si>
+    <t>0.1:0.1:1</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,12 +126,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,9 +228,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -592,48 +586,48 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -838,10 +832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740D4C70-6171-4603-B113-2C28EBD675EF}">
-  <dimension ref="B2:M26"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -918,8 +912,8 @@
       <c r="C5" s="12"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
       <c r="J5" s="11"/>
@@ -933,11 +927,11 @@
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="13"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -951,7 +945,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
       <c r="J7" s="11"/>
@@ -967,9 +961,9 @@
       <c r="D8" s="5"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -980,10 +974,10 @@
         <v>1E-4</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
       <c r="J9" s="11"/>
@@ -999,7 +993,7 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="13"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -1008,7 +1002,7 @@
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="14">
+      <c r="B11" s="6">
         <v>1E-3</v>
       </c>
       <c r="C11" s="5"/>
@@ -1029,9 +1023,9 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
@@ -1042,6 +1036,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1053,39 +1048,46 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" s="4">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" s="4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="4">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1095,25 +1097,26 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="4">
-        <v>0.3</v>
+      <c r="B18" s="6">
+        <v>0.06</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="4">
-        <v>0.4</v>
+      <c r="B19" s="6">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1121,15 +1124,15 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="4">
-        <v>0.5</v>
+      <c r="B20" s="6">
+        <v>0.08</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1137,15 +1140,15 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="4">
-        <v>0.6</v>
+      <c r="B21" s="6">
+        <v>0.09</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1153,79 +1156,31 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="2:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="2:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AB959B-E0D5-48F4-815D-D2A1D4635411}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D845EA6-88C5-4088-980F-426569505F0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -116,7 +116,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,7 +131,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,13 +239,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,48 +616,48 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -832,20 +862,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740D4C70-6171-4603-B113-2C28EBD675EF}">
-  <dimension ref="B2:M23"/>
+  <dimension ref="B2:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="4"/>
     <col min="2" max="2" width="11.9296875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="4"/>
+    <col min="3" max="4" width="9.06640625" style="4"/>
+    <col min="5" max="5" width="9.06640625" style="6"/>
+    <col min="6" max="8" width="9.06640625" style="4"/>
+    <col min="9" max="10" width="9.06640625" style="6"/>
+    <col min="11" max="12" width="9.06640625" style="4"/>
+    <col min="13" max="13" width="9.06640625" style="6"/>
+    <col min="14" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B2" s="7">
         <v>100000</v>
       </c>
@@ -853,21 +889,29 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="2:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="M3" s="16"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="2:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
@@ -875,312 +919,748 @@
         <v>0</v>
       </c>
       <c r="D4" s="10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E4" s="22">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="I4" s="22">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="J4" s="22">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="K4" s="10">
         <v>1E-4</v>
       </c>
-      <c r="E4" s="10">
+      <c r="L4" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F4" s="10">
+      <c r="M4" s="22">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N4" s="10">
         <v>1E-3</v>
       </c>
-      <c r="G4" s="10">
+      <c r="O4" s="10">
         <v>2E-3</v>
       </c>
-      <c r="H4" s="10">
+      <c r="P4" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I4" s="10">
+      <c r="Q4" s="10">
         <v>0.01</v>
       </c>
-      <c r="J4" s="10">
+      <c r="R4" s="10">
         <v>0.02</v>
       </c>
-      <c r="K4" s="10">
+      <c r="S4" s="10">
         <v>0.05</v>
       </c>
-      <c r="L4" s="10">
+      <c r="T4" s="10">
         <v>0.1</v>
       </c>
-      <c r="M4" s="10">
+      <c r="U4" s="10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B5" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+    </row>
+    <row r="6" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B6" s="11">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K6" s="5"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+    </row>
+    <row r="7" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B7" s="11">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="B8" s="13">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K8" s="5"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B9" s="11">
         <v>1E-4</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B10" s="13">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="6">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+    </row>
+    <row r="11" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="13">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+    </row>
+    <row r="12" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="13">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+    </row>
+    <row r="13" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+    </row>
+    <row r="14" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="13">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+    </row>
+    <row r="15" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="13">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+    </row>
+    <row r="16" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="13">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17" s="11">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18" s="6">
         <v>1E-3</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="6">
+      <c r="C18" s="18"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B19" s="21">
         <v>2E-3</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="I19" s="5"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B20" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="18"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="I20" s="5"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B21" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="18"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="8" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="F22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="F23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="F24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="F25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="F26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B27" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B28" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B29" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B30" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B31" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B32" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B33" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B34" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B35" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="2:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="2:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D845EA6-88C5-4088-980F-426569505F0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4569E12-7357-40E9-8F57-DCC450402A47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -116,7 +118,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,13 +139,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,31 +247,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,48 +633,48 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -862,26 +879,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740D4C70-6171-4603-B113-2C28EBD675EF}">
-  <dimension ref="B2:U37"/>
+  <dimension ref="B2:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G13:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="4"/>
     <col min="2" max="2" width="11.9296875" style="4" customWidth="1"/>
-    <col min="3" max="4" width="9.06640625" style="4"/>
+    <col min="3" max="3" width="4.73046875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.06640625" style="4"/>
     <col min="5" max="5" width="9.06640625" style="6"/>
     <col min="6" max="8" width="9.06640625" style="4"/>
     <col min="9" max="10" width="9.06640625" style="6"/>
-    <col min="11" max="12" width="9.06640625" style="4"/>
-    <col min="13" max="13" width="9.06640625" style="6"/>
-    <col min="14" max="16384" width="9.06640625" style="4"/>
+    <col min="11" max="14" width="9.06640625" style="4"/>
+    <col min="15" max="19" width="9.06640625" style="6"/>
+    <col min="20" max="21" width="9.06640625" style="4"/>
+    <col min="22" max="23" width="9.06640625" style="6"/>
+    <col min="24" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B2" s="7">
         <v>100000</v>
       </c>
@@ -889,29 +909,37 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="16"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="16"/>
+      <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="2:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+    </row>
+    <row r="4" spans="2:37" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
@@ -921,7 +949,7 @@
       <c r="D4" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="F4" s="10">
@@ -933,10 +961,10 @@
       <c r="H4" s="10">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="19">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="19">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="K4" s="10">
@@ -945,35 +973,83 @@
       <c r="L4" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N4" s="10">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="O4" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N4" s="10">
+      <c r="P4" s="10">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="R4" s="10">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="S4" s="19">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="T4" s="10">
         <v>1E-3</v>
       </c>
-      <c r="O4" s="10">
+      <c r="U4" s="10">
         <v>2E-3</v>
       </c>
-      <c r="P4" s="10">
+      <c r="V4" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W4" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="X4" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Y4" s="10">
         <v>0.01</v>
       </c>
-      <c r="R4" s="10">
+      <c r="Z4" s="10">
         <v>0.02</v>
       </c>
-      <c r="S4" s="10">
+      <c r="AA4" s="10">
         <v>0.05</v>
       </c>
-      <c r="T4" s="10">
+      <c r="AB4" s="10">
         <v>0.1</v>
       </c>
-      <c r="U4" s="10">
+      <c r="AC4" s="10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AD4" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="AE4" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:37" hidden="1" x14ac:dyDescent="0.45">
       <c r="B5" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -987,16 +1063,20 @@
       <c r="J5" s="13"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-    </row>
-    <row r="6" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+    </row>
+    <row r="6" spans="2:37" hidden="1" x14ac:dyDescent="0.45">
       <c r="B6" s="11">
         <v>1.9999999999999999E-6</v>
       </c>
@@ -1010,17 +1090,25 @@
       <c r="J6" s="13"/>
       <c r="K6" s="5"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-    </row>
-    <row r="7" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
+      <c r="S6" s="13"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+    </row>
+    <row r="7" spans="2:37" hidden="1" x14ac:dyDescent="0.45">
       <c r="B7" s="11">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1034,17 +1122,25 @@
       <c r="J7" s="13"/>
       <c r="K7" s="5"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-    </row>
-    <row r="8" spans="2:21" hidden="1" x14ac:dyDescent="0.45">
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+    </row>
+    <row r="8" spans="2:37" hidden="1" x14ac:dyDescent="0.45">
       <c r="B8" s="13">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -1058,22 +1154,30 @@
       <c r="J8" s="13"/>
       <c r="K8" s="5"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="13"/>
-      <c r="Q8" s="12"/>
+      <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S8" s="13"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B9" s="11">
         <v>1E-4</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -1083,21 +1187,29 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B10" s="13">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -1107,21 +1219,27 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="5"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
       <c r="P10" s="13"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-    </row>
-    <row r="11" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="5"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+    </row>
+    <row r="11" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1132,19 +1250,25 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-    </row>
-    <row r="12" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+    </row>
+    <row r="12" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B12" s="13">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -1155,22 +1279,28 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-    </row>
-    <row r="13" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+    </row>
+    <row r="13" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B13" s="13">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -1178,22 +1308,28 @@
       <c r="L13" s="12"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-    </row>
-    <row r="14" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+    </row>
+    <row r="14" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B14" s="13">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -1201,22 +1337,28 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-    </row>
-    <row r="15" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+    </row>
+    <row r="15" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B15" s="13">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -1224,22 +1366,28 @@
       <c r="L15" s="12"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-    </row>
-    <row r="16" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+    </row>
+    <row r="16" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B16" s="13">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -1247,71 +1395,81 @@
       <c r="L16" s="12"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B17" s="11">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="O17" s="5"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="6"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B18" s="6">
         <v>1E-3</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B19" s="21">
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B19" s="18">
         <v>2E-3</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="20"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -1320,347 +1478,391 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
       <c r="U19" s="5"/>
-    </row>
-    <row r="20" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+    </row>
+    <row r="20" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B20" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="16"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="20"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-    </row>
-    <row r="21" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="U20" s="22"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+    </row>
+    <row r="21" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B21" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="16"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="20"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
-    </row>
-    <row r="22" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="X21" s="22"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+    </row>
+    <row r="22" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B22" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="16"/>
       <c r="F22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
-    </row>
-    <row r="23" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="X22" s="22"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+    </row>
+    <row r="23" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B23" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="16"/>
       <c r="F23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-    </row>
-    <row r="24" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+    </row>
+    <row r="24" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B24" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="16"/>
       <c r="F24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
-    </row>
-    <row r="25" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+    </row>
+    <row r="25" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="16"/>
       <c r="F25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
-    </row>
-    <row r="26" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="X25" s="5"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+    </row>
+    <row r="26" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="16"/>
       <c r="F26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B27" s="4">
         <v>0.01</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B28" s="4">
         <v>0.02</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="22"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B29" s="4">
         <v>0.03</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="5"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B30" s="4">
         <v>0.04</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B31" s="4">
         <v>0.05</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="22"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B32" s="6">
         <v>0.06</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="22"/>
+    </row>
+    <row r="33" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B33" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="22"/>
+    </row>
+    <row r="34" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B34" s="6">
         <v>0.08</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="22"/>
+    </row>
+    <row r="35" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B35" s="6">
         <v>0.09</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
-    </row>
-    <row r="36" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="22"/>
+    </row>
+    <row r="36" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
-    </row>
-    <row r="37" spans="2:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+    </row>
+    <row r="37" spans="2:37" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4569E12-7357-40E9-8F57-DCC450402A47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6535B9A4-40A3-4107-BCEF-03890A2FE71A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -118,7 +118,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,6 +287,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740D4C70-6171-4603-B113-2C28EBD675EF}">
   <dimension ref="B2:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G13:G15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1408,7 +1417,7 @@
       <c r="AB16" s="13"/>
       <c r="AC16" s="13"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B17" s="11">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -1434,7 +1443,7 @@
       <c r="AB17" s="11"/>
       <c r="AC17" s="11"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B18" s="6">
         <v>1E-3</v>
       </c>
@@ -1458,7 +1467,7 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B19" s="18">
         <v>2E-3</v>
       </c>
@@ -1490,7 +1499,7 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
     </row>
-    <row r="20" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B20" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1513,7 +1522,7 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
     </row>
-    <row r="21" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B21" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1535,7 +1544,7 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
     </row>
-    <row r="22" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B22" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1552,7 +1561,7 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
     </row>
-    <row r="23" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B23" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1569,7 +1578,7 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
     </row>
-    <row r="24" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B24" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -1586,7 +1595,7 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
     </row>
-    <row r="25" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -1603,7 +1612,7 @@
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
     </row>
-    <row r="26" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -1620,7 +1629,7 @@
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B27" s="4">
         <v>0.01</v>
       </c>
@@ -1642,7 +1651,7 @@
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B28" s="4">
         <v>0.02</v>
       </c>
@@ -1664,7 +1673,7 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="22"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B29" s="4">
         <v>0.03</v>
       </c>
@@ -1686,7 +1695,7 @@
       <c r="AB29" s="22"/>
       <c r="AC29" s="5"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B30" s="4">
         <v>0.04</v>
       </c>
@@ -1706,9 +1715,11 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="22"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="26"/>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B31" s="4">
         <v>0.05</v>
       </c>
@@ -1729,8 +1740,10 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="22"/>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="26"/>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B32" s="6">
         <v>0.06</v>
       </c>
@@ -1751,6 +1764,8 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="22"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="26"/>
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B33" s="6">
@@ -1772,7 +1787,10 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
-      <c r="AC33" s="22"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="26"/>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B34" s="6">
@@ -1795,6 +1813,9 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="22"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="26"/>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B35" s="6">
@@ -1817,6 +1838,8 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="22"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="26"/>
     </row>
     <row r="36" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="8" t="s">

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6535B9A4-40A3-4107-BCEF-03890A2FE71A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD32B46-A4DE-461F-AB43-E77D1B41544D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -118,7 +118,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +152,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,25 +265,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -642,48 +633,48 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -891,7 +882,7 @@
   <dimension ref="B2:AK37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="AF34" sqref="AF33:AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1186,7 +1177,7 @@
         <v>1E-4</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="23"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -1218,7 +1209,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -1248,7 +1239,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="23"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1277,7 +1268,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="23"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -1306,7 +1297,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="23"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="5"/>
@@ -1337,7 +1328,7 @@
       <c r="C14" s="15"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="23"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="5"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -1365,7 +1356,7 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="23"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="12"/>
       <c r="G15" s="5"/>
       <c r="H15" s="13"/>
@@ -1395,7 +1386,7 @@
       <c r="C16" s="15"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="23"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="5"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -1422,7 +1413,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="5"/>
@@ -1450,7 +1441,7 @@
       <c r="C18" s="16"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="K18" s="5"/>
@@ -1487,8 +1478,8 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
@@ -1514,7 +1505,7 @@
       <c r="L20" s="5"/>
       <c r="O20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="22"/>
+      <c r="U20" s="20"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
@@ -1537,7 +1528,7 @@
       <c r="L21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
-      <c r="X21" s="22"/>
+      <c r="X21" s="20"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
@@ -1554,7 +1545,7 @@
       <c r="L22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
-      <c r="X22" s="22"/>
+      <c r="X22" s="20"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -1573,7 +1564,7 @@
       <c r="U23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="22"/>
+      <c r="Z23" s="20"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
@@ -1590,7 +1581,7 @@
       <c r="U24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
-      <c r="Z24" s="22"/>
+      <c r="Z24" s="20"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
@@ -1606,7 +1597,7 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="22"/>
+      <c r="Y25" s="20"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
@@ -1624,7 +1615,7 @@
       <c r="U26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-      <c r="Z26" s="22"/>
+      <c r="Z26" s="20"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
@@ -1646,7 +1637,7 @@
       <c r="U27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="22"/>
+      <c r="Z27" s="20"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
@@ -1671,7 +1662,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
-      <c r="AC28" s="22"/>
+      <c r="AC28" s="20"/>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B29" s="4">
@@ -1692,7 +1683,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
-      <c r="AB29" s="22"/>
+      <c r="AB29" s="20"/>
       <c r="AC29" s="5"/>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.45">
@@ -1713,11 +1704,11 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="22"/>
+      <c r="AA30" s="20"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="22"/>
+      <c r="AC30" s="20"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="26"/>
+      <c r="AE30" s="5"/>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B31" s="4">
@@ -1739,9 +1730,9 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="22"/>
+      <c r="AC31" s="20"/>
       <c r="AD31" s="5"/>
-      <c r="AE31" s="26"/>
+      <c r="AE31" s="5"/>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B32" s="6">
@@ -1763,9 +1754,9 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
-      <c r="AC32" s="22"/>
+      <c r="AC32" s="20"/>
       <c r="AD32" s="5"/>
-      <c r="AE32" s="26"/>
+      <c r="AE32" s="5"/>
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B33" s="6">
@@ -1788,9 +1779,9 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="22"/>
+      <c r="AD33" s="20"/>
       <c r="AE33" s="5"/>
-      <c r="AF33" s="26"/>
+      <c r="AF33" s="5"/>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B34" s="6">
@@ -1812,10 +1803,10 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
-      <c r="AC34" s="22"/>
+      <c r="AC34" s="20"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
-      <c r="AF34" s="26"/>
+      <c r="AF34" s="5"/>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B35" s="6">
@@ -1837,9 +1828,9 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
-      <c r="AC35" s="22"/>
+      <c r="AC35" s="20"/>
       <c r="AD35" s="5"/>
-      <c r="AE35" s="26"/>
+      <c r="AE35" s="5"/>
     </row>
     <row r="36" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="8" t="s">
@@ -1871,7 +1862,7 @@
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
-      <c r="AC36" s="24"/>
+      <c r="AC36" s="22"/>
       <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
       <c r="AF36" s="14"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD32B46-A4DE-461F-AB43-E77D1B41544D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036E9E83-8E2B-4CA3-8A4F-393B6543DE63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -882,7 +882,7 @@
   <dimension ref="B2:AK37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF33:AF34"/>
+      <selection activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1706,7 +1706,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="20"/>
+      <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
     </row>
@@ -1730,9 +1730,9 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="20"/>
+      <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
+      <c r="AE31" s="20"/>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B32" s="6">
@@ -1754,9 +1754,9 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
-      <c r="AC32" s="20"/>
+      <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
+      <c r="AE32" s="20"/>
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B33" s="6">
@@ -1779,9 +1779,9 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="20"/>
+      <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
+      <c r="AF33" s="20"/>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B34" s="6">
@@ -1803,9 +1803,9 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
-      <c r="AC34" s="20"/>
+      <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
+      <c r="AE34" s="20"/>
       <c r="AF34" s="5"/>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.45">
@@ -1828,9 +1828,9 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
-      <c r="AC35" s="20"/>
+      <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
+      <c r="AE35" s="20"/>
     </row>
     <row r="36" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="8" t="s">

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036E9E83-8E2B-4CA3-8A4F-393B6543DE63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ACCE4B-4644-42A8-A32A-A7901EEA41E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -118,7 +118,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,6 +281,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -633,48 +642,48 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -882,7 +891,7 @@
   <dimension ref="B2:AK37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1807,6 +1816,7 @@
       <c r="AD34" s="5"/>
       <c r="AE34" s="20"/>
       <c r="AF34" s="5"/>
+      <c r="AG34" s="24"/>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B35" s="6">
@@ -1831,6 +1841,7 @@
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="20"/>
+      <c r="AF35" s="24"/>
     </row>
     <row r="36" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="8" t="s">

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ACCE4B-4644-42A8-A32A-A7901EEA41E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F3AB46-01D5-4FC6-9DBC-A8192D04C652}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740D4C70-6171-4603-B113-2C28EBD675EF}">
   <dimension ref="B2:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF35" sqref="AF35:AG35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1816,7 +1816,8 @@
       <c r="AD34" s="5"/>
       <c r="AE34" s="20"/>
       <c r="AF34" s="5"/>
-      <c r="AG34" s="24"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="24"/>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B35" s="6">
@@ -1841,7 +1842,8 @@
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="20"/>
-      <c r="AF35" s="24"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="24"/>
     </row>
     <row r="36" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="8" t="s">

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F3AB46-01D5-4FC6-9DBC-A8192D04C652}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19D460A-4C4A-4D99-B1A9-C47E5AF30DAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="21">
   <si>
     <t>type</t>
   </si>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740D4C70-6171-4603-B113-2C28EBD675EF}">
   <dimension ref="B2:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF35" sqref="AF35:AG35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19D460A-4C4A-4D99-B1A9-C47E5AF30DAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD16AE1-431D-465C-9034-6C5FAB8DCB8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>type</t>
   </si>
@@ -157,7 +157,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,13 +283,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -642,48 +642,48 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740D4C70-6171-4603-B113-2C28EBD675EF}">
   <dimension ref="B2:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH32" sqref="AH32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1488,7 +1488,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
+      <c r="T19" s="26"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
@@ -1817,7 +1817,7 @@
       <c r="AE34" s="20"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
-      <c r="AH34" s="24"/>
+      <c r="AH34" s="5"/>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B35" s="6">
@@ -1843,7 +1843,7 @@
       <c r="AD35" s="5"/>
       <c r="AE35" s="20"/>
       <c r="AF35" s="5"/>
-      <c r="AG35" s="24"/>
+      <c r="AG35" s="5"/>
     </row>
     <row r="36" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="8" t="s">

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA78B3A1-5F4F-4353-92E5-760EF9356E85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301AE29E-B51F-4ABD-BD69-4AEC6CE75932}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>alpha\kappa</t>
   </si>
@@ -1542,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78340156-367F-4074-AF65-68C2EB7B0344}">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1620,29 +1620,29 @@
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10">
         <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="3">
-        <v>2E-3</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -1663,8 +1663,8 @@
       <c r="H10" s="23"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="10">
-        <v>0.01</v>
+      <c r="B11" s="3">
+        <v>2E-3</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -1674,30 +1674,30 @@
       <c r="H11" s="23"/>
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="B12" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="B13" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
-        <v>0.1</v>
+      <c r="B14" s="3">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="10">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -1717,18 +1717,106 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="11">
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="11">
         <v>0.5</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301AE29E-B51F-4ABD-BD69-4AEC6CE75932}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7CF08D-59AB-49B9-8FC8-046E23C45C0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>alpha\kappa</t>
   </si>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,9 +212,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1542,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78340156-367F-4074-AF65-68C2EB7B0344}">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1622,23 +1619,23 @@
       <c r="B7" s="10">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="10">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="10">
@@ -1652,8 +1649,8 @@
       <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="3">
-        <v>1E-3</v>
+      <c r="B10" s="10">
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -1664,7 +1661,7 @@
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -1675,29 +1672,29 @@
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+        <v>2E-3</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -1707,8 +1704,8 @@
       <c r="H14" s="23"/>
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="10">
-        <v>0.01</v>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -1718,8 +1715,8 @@
       <c r="H15" s="23"/>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
-        <v>0.02</v>
+      <c r="B16" s="3">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -1730,29 +1727,29 @@
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="10">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -1763,7 +1760,7 @@
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -1774,7 +1771,7 @@
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="10">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -1785,38 +1782,71 @@
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
         <v>0.4</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="11">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>0.5</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7CF08D-59AB-49B9-8FC8-046E23C45C0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E9C8EE-92B7-4EAE-8423-592291F4F954}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="11963" yWindow="3105" windowWidth="18195" windowHeight="12742" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ringworld 0.05-0.1" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,12 +104,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -143,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,9 +203,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1539,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78340156-367F-4074-AF65-68C2EB7B0344}">
-  <dimension ref="B2:H28"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1597,210 +1588,210 @@
       <c r="B5" s="10">
         <v>1E-4</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="10">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>1E-3</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="10">
         <v>0.01</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="10">
         <v>0.02</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="10">
         <v>0.03</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="10">
         <v>0.04</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="10">
         <v>0.05</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="10">
         <v>0.1</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="10">
         <v>0.2</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="10">
@@ -1824,29 +1815,18 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="26" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="11">
         <v>0.5</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E9C8EE-92B7-4EAE-8423-592291F4F954}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F49D22-286A-417E-A8E0-87E6E466A8CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11963" yWindow="3105" windowWidth="18195" windowHeight="12742" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>alpha\kappa</t>
   </si>
   <si>
     <t>0.1:0.1:1</t>
+  </si>
+  <si>
+    <t>46!</t>
   </si>
 </sst>
 </file>
@@ -1530,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78340156-367F-4074-AF65-68C2EB7B0344}">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1544,7 +1547,7 @@
     <col min="4" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="22">
         <v>100000</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1561,7 +1564,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1584,29 +1587,29 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="10">
         <v>1E-4</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -1617,7 +1620,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="10">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -1628,18 +1631,18 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -1650,29 +1653,32 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>1E-3</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2E-3</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1683,7 +1689,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1694,18 +1700,18 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1721,9 +1727,9 @@
         <v>0.01</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
@@ -1732,9 +1738,9 @@
         <v>0.02</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
@@ -1765,9 +1771,9 @@
         <v>0.05</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
@@ -1776,9 +1782,9 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
@@ -1787,9 +1793,9 @@
         <v>0.2</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F49D22-286A-417E-A8E0-87E6E466A8CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF82B43-6A73-4C0F-BEFF-961409909342}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11963" yWindow="3105" windowWidth="18195" windowHeight="12742" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>alpha\kappa</t>
   </si>
   <si>
     <t>0.1:0.1:1</t>
-  </si>
-  <si>
-    <t>46!</t>
   </si>
 </sst>
 </file>
@@ -1533,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78340156-367F-4074-AF65-68C2EB7B0344}">
-  <dimension ref="B2:J27"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1547,7 +1544,7 @@
     <col min="4" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="22">
         <v>100000</v>
       </c>
@@ -1555,7 +1552,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1564,7 +1561,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1584,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="10">
         <v>1E-4</v>
       </c>
@@ -1598,7 +1595,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -1609,7 +1606,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -1620,7 +1617,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="10">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -1631,7 +1628,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1642,7 +1639,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -1653,7 +1650,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>1E-3</v>
       </c>
@@ -1663,11 +1660,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="J11" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2E-3</v>
       </c>
@@ -1678,7 +1672,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1689,7 +1683,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1700,7 +1694,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1711,7 +1705,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <v>6.0000000000000001E-3</v>
       </c>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF82B43-6A73-4C0F-BEFF-961409909342}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ABBD72-71BE-48C5-BEE7-CB5BB9479D15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11963" yWindow="3105" windowWidth="18195" windowHeight="12742" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="48480" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ringworld 0.05-0.1" sheetId="2" r:id="rId1"/>
     <sheet name="ringworld 0.35-0.4" sheetId="3" r:id="rId2"/>
+    <sheet name="frozenlake_off" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>alpha\kappa</t>
   </si>
@@ -137,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -203,6 +204,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1530,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78340156-367F-4074-AF65-68C2EB7B0344}">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1640,8 +1644,292 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
-        <v>5.9999999999999995E-4</v>
+      <c r="B10" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AF62E3-23A1-46B1-8C8B-E929F2E6628B}">
+  <dimension ref="B2:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F13:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="26.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B2" s="22">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>240</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
+        <v>1E-3</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1650,31 +1938,31 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+        <v>2E-3</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1683,9 +1971,9 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1694,20 +1982,20 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="3">
-        <v>5.0000000000000001E-3</v>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="10">
+        <v>0.01</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="3">
-        <v>6.0000000000000001E-3</v>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
+        <v>0.02</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1716,31 +2004,31 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+        <v>0.03</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+        <v>0.04</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" s="10">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1749,9 +2037,9 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B20" s="10">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1760,73 +2048,51 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B21" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B22" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B23" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="11">
+    <row r="24" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="11">
         <v>0.5</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ABBD72-71BE-48C5-BEE7-CB5BB9479D15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F7F994-5E75-48F3-8795-434126AF4B97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48480" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="2" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ringworld 0.05-0.1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>alpha\kappa</t>
   </si>
@@ -62,7 +62,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +105,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -138,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,6 +213,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,7 +1547,7 @@
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H24"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1819,7 +1829,7 @@
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F13:F14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1876,9 +1886,9 @@
       <c r="B5" s="10">
         <v>1E-4</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1887,7 +1897,7 @@
       <c r="B6" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1931,7 +1941,7 @@
       <c r="B10" s="3">
         <v>1E-3</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1942,10 +1952,10 @@
       <c r="B11" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
@@ -1988,9 +1998,9 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="23"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F7F994-5E75-48F3-8795-434126AF4B97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D9EAA-E1E5-4F40-881F-BAF231831A3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="2" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ringworld 0.05-0.1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>alpha\kappa</t>
   </si>
@@ -1546,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78340156-367F-4074-AF65-68C2EB7B0344}">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1624,23 +1624,23 @@
       <c r="B7" s="10">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="10">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="10">
@@ -1679,23 +1679,23 @@
       <c r="B12" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
@@ -1734,23 +1734,23 @@
       <c r="B17" s="10">
         <v>0.03</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="10">
         <v>0.04</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="10">
@@ -1828,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AF62E3-23A1-46B1-8C8B-E929F2E6628B}">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1963,7 +1963,7 @@
       <c r="B12" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -1974,7 +1974,7 @@
       <c r="B13" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -2040,7 +2040,7 @@
       <c r="B19" s="10">
         <v>0.05</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -2062,7 +2062,7 @@
       <c r="B21" s="10">
         <v>0.2</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -2073,7 +2073,7 @@
       <c r="B22" s="10">
         <v>0.3</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D9EAA-E1E5-4F40-881F-BAF231831A3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD36D6-FDD6-4BD4-A1F9-CC068403200C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="-111" yWindow="-111" windowWidth="33137" windowHeight="18137" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ringworld 0.05-0.1" sheetId="2" r:id="rId1"/>
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,6 +217,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1544,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78340156-367F-4074-AF65-68C2EB7B0344}">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1690,12 +1693,12 @@
       <c r="B13" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
@@ -1745,12 +1748,12 @@
       <c r="B18" s="10">
         <v>0.04</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="10">
@@ -1758,67 +1761,23 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+    <row r="20" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="11">
         <v>0.1</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1829,7 +1788,7 @@
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2051,7 +2010,7 @@
       <c r="B20" s="10">
         <v>0.1</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD36D6-FDD6-4BD4-A1F9-CC068403200C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1996D0EA-6D24-4D66-819E-A0F4D85D64CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-111" yWindow="-111" windowWidth="33137" windowHeight="18137" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ringworld 0.05-0.1" sheetId="2" r:id="rId1"/>
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,9 +217,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1550,7 +1547,7 @@
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1748,12 +1745,12 @@
       <c r="B18" s="10">
         <v>0.04</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="10">
@@ -1761,9 +1758,9 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1788,7 +1785,7 @@
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1867,7 +1864,7 @@
       <c r="B7" s="10">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1944,7 +1941,7 @@
       <c r="B14" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1988,7 +1985,7 @@
       <c r="B18" s="10">
         <v>0.04</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -1999,7 +1996,7 @@
       <c r="B19" s="10">
         <v>0.05</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -2010,7 +2007,7 @@
       <c r="B20" s="10">
         <v>0.1</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1996D0EA-6D24-4D66-819E-A0F4D85D64CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F5E7F3-BE10-4236-B57F-977F550A8458}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="28706" yWindow="5546" windowWidth="7963" windowHeight="2108" activeTab="2" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ringworld 0.05-0.1" sheetId="2" r:id="rId1"/>
@@ -212,13 +212,11 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1546,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78340156-367F-4074-AF65-68C2EB7B0344}">
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1734,23 +1732,23 @@
       <c r="B17" s="10">
         <v>0.03</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="10">
         <v>0.04</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="10">
@@ -1758,9 +1756,9 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="25"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1782,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AF62E3-23A1-46B1-8C8B-E929F2E6628B}">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1793,7 +1791,7 @@
     <col min="2" max="2" width="26.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="22">
         <v>100000</v>
       </c>
@@ -1806,7 +1804,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1815,7 +1813,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1838,42 +1836,42 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="10">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C6" s="25"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="10">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="C7" s="25"/>
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="10">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1882,9 +1880,9 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="10">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1893,31 +1891,33 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C10" s="24"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="C11" s="24"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="23"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="3">
-        <v>3.0000000000000001E-3</v>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
@@ -1925,76 +1925,83 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C13" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="10">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C14" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="23"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="C16" s="10"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C16" s="23"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="C17" s="10"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="C18" s="25"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
-        <v>0.05</v>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="3">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -2002,21 +2009,23 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="10">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -2024,41 +2033,44 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="C22" s="9"/>
+        <v>0.03</v>
+      </c>
+      <c r="C22" s="24"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="C23" s="10"/>
+        <v>0.04</v>
+      </c>
+      <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="C24" s="11"/>
+        <v>0.05</v>
+      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F5E7F3-BE10-4236-B57F-977F550A8458}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF846B1-F532-4E8B-8B95-AD5DE97E15CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28706" yWindow="5546" windowWidth="7963" windowHeight="2108" activeTab="2" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="28706" yWindow="5546" windowWidth="7963" windowHeight="2108" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ringworld 0.05-0.1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>alpha\kappa</t>
   </si>
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78340156-367F-4074-AF65-68C2EB7B0344}">
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1732,7 +1732,7 @@
       <c r="B17" s="10">
         <v>0.03</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -1743,7 +1743,7 @@
       <c r="B18" s="10">
         <v>0.04</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -1782,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AF62E3-23A1-46B1-8C8B-E929F2E6628B}">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1931,7 +1931,7 @@
       <c r="B13" s="10">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -2039,7 +2039,7 @@
       <c r="B22" s="10">
         <v>0.03</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF846B1-F532-4E8B-8B95-AD5DE97E15CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831FF047-F159-4AF8-943C-FED9DA759D08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28706" yWindow="5546" windowWidth="7963" windowHeight="2108" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ringworld 0.05-0.1" sheetId="2" r:id="rId1"/>
@@ -35,12 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>alpha\kappa</t>
   </si>
   <si>
     <t>0.1:0.1:1</t>
+  </si>
+  <si>
+    <t>MTA not best</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,6 +220,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1542,16 +1551,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78340156-367F-4074-AF65-68C2EB7B0344}">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C8" sqref="C8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="3"/>
-    <col min="2" max="2" width="11.9296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.9296875" style="3" customWidth="1"/>
     <col min="3" max="3" width="4.73046875" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9.06640625" style="3"/>
   </cols>
@@ -1597,8 +1606,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="10">
-        <v>1E-4</v>
+      <c r="B5" s="26">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1608,19 +1617,19 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
-        <v>2.0000000000000001E-4</v>
+      <c r="B6" s="26">
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
-        <v>2.9999999999999997E-4</v>
+      <c r="B7" s="26">
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1630,8 +1639,8 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
-        <v>4.0000000000000002E-4</v>
+      <c r="B8" s="26">
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1641,30 +1650,30 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="B9" s="26">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="3">
-        <v>1E-3</v>
+      <c r="B10" s="26">
+        <v>1E-4</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="3">
-        <v>2E-3</v>
+      <c r="B11" s="26">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1674,8 +1683,8 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="3">
-        <v>3.0000000000000001E-3</v>
+      <c r="B12" s="26">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1685,8 +1694,8 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="3">
-        <v>4.0000000000000001E-3</v>
+      <c r="B13" s="26">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1696,8 +1705,8 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="3">
-        <v>5.0000000000000001E-3</v>
+      <c r="B14" s="26">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1707,8 +1716,8 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="10">
-        <v>0.01</v>
+      <c r="B15" s="3">
+        <v>1E-3</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1718,8 +1727,8 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
-        <v>0.02</v>
+      <c r="B16" s="3">
+        <v>2E-3</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1729,52 +1738,113 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="10">
-        <v>0.03</v>
+      <c r="B17" s="3">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
-        <v>0.04</v>
+      <c r="B18" s="3">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
-        <v>0.05</v>
+      <c r="B19" s="3">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="24"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="11">
+    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="11">
         <v>0.1</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1783,7 +1853,7 @@
   <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1840,7 +1910,7 @@
       <c r="B5" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -1851,7 +1921,7 @@
       <c r="B6" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1862,7 +1932,7 @@
       <c r="B7" s="10">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1873,7 +1943,7 @@
       <c r="B8" s="10">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -1884,7 +1954,7 @@
       <c r="B9" s="10">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1931,7 +2001,7 @@
       <c r="B13" s="10">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1943,7 +2013,7 @@
       <c r="B14" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2039,7 +2109,7 @@
       <c r="B22" s="10">
         <v>0.03</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831FF047-F159-4AF8-943C-FED9DA759D08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CBB376-8FFB-4205-A405-79F52CE05380}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ringworld 0.05-0.1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>alpha\kappa</t>
   </si>
@@ -44,6 +44,27 @@
   </si>
   <si>
     <t>MTA not best</t>
+  </si>
+  <si>
+    <t>0.00001x</t>
+  </si>
+  <si>
+    <t>0.0001x</t>
+  </si>
+  <si>
+    <t>0.001x</t>
+  </si>
+  <si>
+    <t>0.01x</t>
+  </si>
+  <si>
+    <t>0.1x</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>0x</t>
   </si>
 </sst>
 </file>
@@ -1553,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78340156-367F-4074-AF65-68C2EB7B0344}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1606,7 +1627,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="26">
+      <c r="B5" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C5" s="9"/>
@@ -1617,7 +1638,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="26">
+      <c r="B6" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="C6" s="9"/>
@@ -1628,7 +1649,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="26">
+      <c r="B7" s="10">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="C7" s="9"/>
@@ -1639,7 +1660,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="26">
+      <c r="B8" s="10">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="C8" s="9"/>
@@ -1672,7 +1693,7 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="26">
+      <c r="B11" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C11" s="9"/>
@@ -1767,7 +1788,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1779,7 +1800,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="24"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="10">
@@ -1789,7 +1810,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="24"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1852,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AF62E3-23A1-46B1-8C8B-E929F2E6628B}">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1887,23 +1908,26 @@
       <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="F4" s="16">
-        <v>1E-3</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0.1</v>
+      <c r="C4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
@@ -2086,8 +2110,8 @@
         <v>0.01</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -2139,6 +2163,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CBB376-8FFB-4205-A405-79F52CE05380}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1920DD22-6F2F-4516-9E48-132B503F53FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="3" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ringworld 0.05-0.1" sheetId="2" r:id="rId1"/>
     <sheet name="ringworld 0.35-0.4" sheetId="3" r:id="rId2"/>
     <sheet name="frozenlake_off" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1873,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AF62E3-23A1-46B1-8C8B-E929F2E6628B}">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2169,4 +2170,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033F5D0C-75E9-4F9B-842B-4C98F29B2D77}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1920DD22-6F2F-4516-9E48-132B503F53FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A72797D-5286-4134-B915-3D4E78F45DCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="3" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
+    <workbookView xWindow="6818" yWindow="2730" windowWidth="18225" windowHeight="11415" activeTab="3" xr2:uid="{CBDCCB51-8ED8-4684-977B-0860933EA9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ringworld 0.05-0.1" sheetId="2" r:id="rId1"/>
     <sheet name="ringworld 0.35-0.4" sheetId="3" r:id="rId2"/>
     <sheet name="frozenlake_off" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="frozenlake_control" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>alpha\kappa</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>0x</t>
+  </si>
+  <si>
+    <t>太小</t>
   </si>
 </sst>
 </file>
@@ -2174,12 +2177,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033F5D0C-75E9-4F9B-842B-4C98F29B2D77}">
-  <dimension ref="A1"/>
+  <dimension ref="A5:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1E-4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>